--- a/storage/app/public/TemplateFile.xlsx
+++ b/storage/app/public/TemplateFile.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Indicateurs session" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Indicateurs session'!$A$1:$F$35</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Bilan de formation</t>
   </si>
@@ -38,109 +38,61 @@
     <t xml:space="preserve">N° de convention :</t>
   </si>
   <si>
-    <t xml:space="preserve">41C341992154</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intitulé de formation :</t>
   </si>
   <si>
+    <t xml:space="preserve">Organisme de formation attributaire :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si vous ne trouvez pas un critère, rajoutez le à la fin de la liste sans saut de ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATEURS D’ACTIVITÉS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALEUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organismes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCI NICE COTE D'AZUR / ANPEP 84300 CAVAILLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVAILLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVELOPPEUR JAVA J2EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statsccinca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCI NICE COTE D'AZUR / ICS formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEVELOPPEUR PHP/MYSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisme de formation attributaire :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCI NICE COTE D'AZUR / ICS formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Du :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si vous ne trouvez pas un critère, rajoutez le à la fin de la liste sans saut de ligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDICATEURS D’ACTIVITÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALEUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de candidats retenus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de femmes retenues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de QPV, ZRR retenus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre publics peu qualifiés retenus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre d'abandons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de présents J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre stagiaires fin formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de stagiaires départ anticipé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de stagiaires coachés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de stagiaires avec parcours modulaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de stagiaires avec remise à niveau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de BOE entrée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de BOE fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbre de diplômés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organismes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCI NICE COTE D'AZUR / ANPEP 84300 CAVAILLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAVAILLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVELOPPEUR JAVA J2EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statsccinca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE</t>
   </si>
   <si>
     <r>
@@ -159,6 +111,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=RECHERCHEV($C$9;</t>
     </r>
@@ -168,6 +121,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$Feuil3.$A$2:$B$150</t>
     </r>
@@ -177,6 +131,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;2;0)</t>
     </r>
@@ -191,7 +146,7 @@
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,15 +347,10 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -821,7 +771,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -881,10 +831,6 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="51" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="51" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="51" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1033,10 +979,10 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
@@ -1085,16 +1031,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5" t="n">
-        <v>50122</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -1105,12 +1047,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1121,12 +1061,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1137,280 +1075,217 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>44594</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12" t="n">
-        <v>44834</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20" t="n">
-        <v>22</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20" t="n">
-        <v>35</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20" t="n">
-        <v>1</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20" t="n">
-        <v>45</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20" t="n">
-        <v>3</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20" t="n">
-        <v>10</v>
-      </c>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20" t="n">
-        <v>9</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20" t="n">
-        <v>10</v>
-      </c>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20" t="n">
-        <v>10</v>
-      </c>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20" t="n">
-        <v>1</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20" t="n">
-        <v>1</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20" t="n">
-        <v>9</v>
-      </c>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="dd1a" objects="true" scenarios="true" selectLockedCells="true"/>
   <mergeCells count="31">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
@@ -1453,7 +1328,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D11" type="date">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D11 F11" type="date">
       <formula1>B11</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1491,44 +1366,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>8</v>
+      <c r="A3" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
